--- a/biology/Médecine/Marc_Savasta/Marc_Savasta.xlsx
+++ b/biology/Médecine/Marc_Savasta/Marc_Savasta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Savasta, né en 1957 à Alger, est un neurobiologiste français.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Travaux de recherche et apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les travaux de recherche de Marc Savasta sont centrés sur la physiopathologie de la maladie de Parkinson. Ses études se sont intéressées la plasticité du système dopaminergique nigrostrié chez le rongeur et le primate non humain et plus récemment sur les mécanismes qui sous-tendent l'efficacité thérapeutique de la stimulation haute fréquence (SHF) du noyau sous-thalamique dans la correction des symptômes moteurs de cette pathologie et dans les symptômes neuropsychiatriques associés[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de recherche de Marc Savasta sont centrés sur la physiopathologie de la maladie de Parkinson. Ses études se sont intéressées la plasticité du système dopaminergique nigrostrié chez le rongeur et le primate non humain et plus récemment sur les mécanismes qui sous-tendent l'efficacité thérapeutique de la stimulation haute fréquence (SHF) du noyau sous-thalamique dans la correction des symptômes moteurs de cette pathologie et dans les symptômes neuropsychiatriques associés. 
 </t>
         </is>
       </c>
@@ -570,15 +586,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lauréat et Prix de Recherche
-Fondation Simone et Cino del Duca (Octobre 1986 et septembre 2004)
+          <t>Lauréat et Prix de Recherche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fondation Simone et Cino del Duca (Octobre 1986 et septembre 2004)
 Fondation Recherche Médicale, 1987
 Fondation NRJ - Institut de France, 2004
 Fondation France Parkinson, 2006 et 2009
 Prime d’Excellence Scientifique Inserm de 2010 à 2015
-Académie Nationale de Médecine, Prix de Neurologie Aimée et Raymond Mande 2014[2]
-Distinction
- Chevalier de la Légion d'honneur – Promotion Avril 2015[3]
+Académie Nationale de Médecine, Prix de Neurologie Aimée et Raymond Mande 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marc_Savasta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Savasta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur – Promotion Avril 2015
  Chevalier de l'ordre des Palmes académiques - Promotion Décembre 2021</t>
         </is>
       </c>
